--- a/HttpServer/documents/详细设计说明书.xlsx
+++ b/HttpServer/documents/详细设计说明书.xlsx
@@ -109,19 +109,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始化服务器数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exitServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>清理服务器资源，退出程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commandMonitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -158,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>requestMonitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求监听，对新的连接请求创建新的socket连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.succez.server.resolve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resolver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.succez.server.response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>responseHandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,26 +223,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ReadFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convertFromFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将文件的内容转换为浏览器可呈现的格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件下载功能：1，将压缩文件或者大文件转化为网络可下载的流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downloadFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将指定文件转换为可下载流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录列表功能：1，根据提供的目录地址，返回目录下的文件列表信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listFromDirectory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装目录下的文件列表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化服务器数据，启动服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.succez.server.resolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.succez.server.responser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>com.succez.server.reader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ReadFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>convertFromFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将文件的内容转换为浏览器可呈现的格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件下载功能：1，将压缩文件或者大文件转化为网络可下载的流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.succez.server.downloader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,18 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>downloadFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将指定文件转换为可下载流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录列表功能：1，根据提供的目录地址，返回目录下的文件列表信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.succez.server.directory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,19 +299,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>函数名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listFromDirectory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装目录下的文件列表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
+    <t>commandMonitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestMonitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,26 +421,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1555,9 +1555,9 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="13">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4">
         <v>42440</v>
       </c>
     </row>
@@ -1567,21 +1567,21 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1604,33 +1604,33 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1655,40 +1655,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
@@ -1700,77 +1700,77 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1800,104 +1800,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1928,81 +1928,81 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="B3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2029,48 +2029,48 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2095,84 +2095,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2199,31 +2199,31 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -2232,11 +2232,11 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
-        <v>61</v>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -2268,48 +2268,48 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HttpServer/documents/详细设计说明书.xlsx
+++ b/HttpServer/documents/详细设计说明书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
@@ -154,19 +154,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>connectToEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建连接到远程的线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初版时间：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourceCleaner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,6 +296,14 @@
   </si>
   <si>
     <t>requestMonitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectToEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceCleaner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4">
         <v>42440</v>
@@ -1647,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1730,7 +1730,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>23</v>
@@ -1792,7 +1792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>31</v>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1928,12 +1928,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -1965,7 +1965,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -1974,10 +1974,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1994,10 +1994,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -2029,7 +2029,7 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
@@ -2037,7 +2037,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
@@ -2045,15 +2045,15 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -2062,10 +2062,10 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -2096,7 +2096,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2137,7 +2137,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
@@ -2145,7 +2145,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
@@ -2163,10 +2163,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -2199,7 +2199,7 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -2207,7 +2207,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
@@ -2215,7 +2215,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
@@ -2223,7 +2223,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -2268,7 +2268,7 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -2276,7 +2276,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
@@ -2284,15 +2284,15 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
